--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3DE98-E161-4DB9-8854-C1C35CED85F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA6345-9BF2-432D-93F3-E7F9C9A15A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>Latest Collection</t>
   </si>
   <si>
-    <t>file:///C:/Users/TuanLX/Downloads/TestData/TestData/Tra%20c%E1%BB%A9u%20d%E1%BB%AF%20li%E1%BB%87u%20thu%20online.html</t>
+    <t>https://www.youtube.com/watch?v=Z8Mqw0b9ADs&amp;list=RDOLp0RqXJ2Ro&amp;index=3</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{685949A6-B811-49C8-9762-57A59E5EA25E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9BDC5A74-D8E0-402F-B46C-E7EC4664E58F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBA6345-9BF2-432D-93F3-E7F9C9A15A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE5142-F3F2-4CC5-88E2-50C4790D761F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Action</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Z8Mqw0b9ADs&amp;list=RDOLp0RqXJ2Ro&amp;index=3</t>
+  </si>
+  <si>
+    <t>First Step</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +460,14 @@
       </c>
       <c r="E3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +495,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE5142-F3F2-4CC5-88E2-50C4790D761F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238404CA-8495-4B1A-94BA-AEB36BECEE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Action</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>//tbody[@id='body-choose-bill']</t>
-  </si>
-  <si>
     <t>Get Value of</t>
   </si>
   <si>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>First Step</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>https://github.com/nguyentruongtuan1111/TestSelenium</t>
+  </si>
+  <si>
+    <t>https://dantri.com.vn/</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
@@ -445,34 +451,33 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9BDC5A74-D8E0-402F-B46C-E7EC4664E58F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6BFDC122-E699-4B85-B236-9316D8EA88B5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{8C820121-FA16-41FB-9BCC-8FE3364F5EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -495,7 +500,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,22 +513,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238404CA-8495-4B1A-94BA-AEB36BECEE83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647B143-7ABD-4F72-817E-91A83AB989AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Paste</t>
   </si>
   <si>
-    <t>Select Dropdown</t>
-  </si>
-  <si>
     <t>Navigate</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>https://dantri.com.vn/</t>
+  </si>
+  <si>
+    <t>Wait</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,37 +440,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -500,7 +500,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,37 +537,37 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647B143-7ABD-4F72-817E-91A83AB989AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D60951-2217-4688-9C59-E79A5D03564E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,22 +68,22 @@
     <t>Latest Collection</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Z8Mqw0b9ADs&amp;list=RDOLp0RqXJ2Ro&amp;index=3</t>
-  </si>
-  <si>
     <t>First Step</t>
   </si>
   <si>
     <t>Policy</t>
   </si>
   <si>
-    <t>https://github.com/nguyentruongtuan1111/TestSelenium</t>
-  </si>
-  <si>
-    <t>https://dantri.com.vn/</t>
-  </si>
-  <si>
     <t>Wait</t>
+  </si>
+  <si>
+    <t>//td</t>
+  </si>
+  <si>
+    <t>//tbody[@id='body-choose-bill']</t>
+  </si>
+  <si>
+    <t>file:///C:/Users/TuanLX/Downloads/TestData4.html</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,33 +451,34 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9BDC5A74-D8E0-402F-B46C-E7EC4664E58F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6BFDC122-E699-4B85-B236-9316D8EA88B5}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{8C820121-FA16-41FB-9BCC-8FE3364F5EFD}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0C54FD0F-F1F7-4480-9454-FCC8DD62FAE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -500,7 +501,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,12 +538,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
